--- a/data/trans_dic/IP37-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP37-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>51,49; 71,8</t>
+          <t>51,95; 71,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>70,93; 86,23</t>
+          <t>72,39; 86,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>63,75; 82,02</t>
+          <t>62,61; 81,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>51,43; 75,21</t>
+          <t>51,91; 74,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>71,65; 86,14</t>
+          <t>71,91; 86,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>67,19; 83,34</t>
+          <t>67,14; 83,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>54,81; 69,92</t>
+          <t>54,93; 70,79</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>74,59; 84,83</t>
+          <t>74,36; 84,74</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>68,71; 80,66</t>
+          <t>68,49; 80,27</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>60,25; 73,97</t>
+          <t>59,54; 74,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>66,48; 78,98</t>
+          <t>66,39; 78,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>70,15; 82,31</t>
+          <t>69,35; 82,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>44,6; 100,0</t>
+          <t>37,94; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>58,27; 73,48</t>
+          <t>59,67; 73,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>73,99; 85,17</t>
+          <t>72,49; 85,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>69,29; 83,09</t>
+          <t>68,25; 82,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 82,02</t>
+          <t>0,0; 82,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>61,86; 72,61</t>
+          <t>61,91; 72,53</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>72,23; 80,71</t>
+          <t>72,09; 80,2</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>71,8; 81,09</t>
+          <t>71,63; 80,76</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>32,37; 82,27</t>
+          <t>32,12; 81,71</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>58,82; 78,34</t>
+          <t>58,31; 78,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>60,35; 77,46</t>
+          <t>60,09; 78,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>65,81; 80,7</t>
+          <t>65,02; 80,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 82,69</t>
+          <t>0,0; 87,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>43,19; 63,5</t>
+          <t>45,98; 64,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>72,36; 86,08</t>
+          <t>72,4; 86,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>73,84; 87,73</t>
+          <t>73,27; 87,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,35; 62,36</t>
+          <t>7,94; 59,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>53,61; 67,9</t>
+          <t>54,13; 67,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>69,19; 80,25</t>
+          <t>69,03; 80,09</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>71,74; 82,23</t>
+          <t>71,76; 82,15</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,7; 48,96</t>
+          <t>9,43; 49,89</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>48,77; 64,09</t>
+          <t>47,0; 64,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>64,64; 77,93</t>
+          <t>64,13; 78,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>58,93; 76,02</t>
+          <t>59,11; 75,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>31,39; 78,57</t>
+          <t>28,84; 80,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>48,09; 65,93</t>
+          <t>47,9; 66,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>58,89; 75,64</t>
+          <t>58,08; 75,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>62,62; 78,72</t>
+          <t>62,16; 77,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,3; 54,91</t>
+          <t>14,16; 52,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>51,25; 63,07</t>
+          <t>51,32; 63,19</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>64,23; 75,06</t>
+          <t>63,74; 74,59</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>63,34; 74,83</t>
+          <t>63,06; 74,76</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>28,85; 62,07</t>
+          <t>27,0; 60,93</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>58,67; 67,31</t>
+          <t>59,15; 67,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>69,61; 77,01</t>
+          <t>69,57; 76,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>69,44; 77,01</t>
+          <t>69,31; 76,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>35,3; 72,88</t>
+          <t>33,3; 71,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>56,7; 65,41</t>
+          <t>56,76; 66,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>73,1; 80,26</t>
+          <t>73,55; 80,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>72,54; 79,83</t>
+          <t>72,7; 79,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,69; 47,3</t>
+          <t>18,15; 48,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>59,19; 65,24</t>
+          <t>58,94; 65,55</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>72,44; 77,4</t>
+          <t>72,75; 77,73</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>71,97; 77,52</t>
+          <t>72,12; 77,34</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>30,48; 54,87</t>
+          <t>30,57; 54,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP37-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP37-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>63,98%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>79,87%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>76,06%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>76,86%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>61,68%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>80,02%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>73,8%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>63,98%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>79,87%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>76,06%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>44,49%</t>
+          <t>73,44%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>31,9%</t>
+          <t>75,16%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>51,95; 71,88</t>
+          <t>51,46; 74,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>72,39; 86,3</t>
+          <t>72,44; 86,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>62,61; 81,71</t>
+          <t>66,69; 83,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>56,77; 90,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>51,91; 74,68</t>
+          <t>51,21; 72,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>71,91; 86,4</t>
+          <t>72,06; 86,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>67,14; 83,45</t>
+          <t>64,06; 81,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>54,2; 88,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>54,93; 70,79</t>
+          <t>53,98; 69,92</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>74,36; 84,74</t>
+          <t>74,26; 84,48</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>68,49; 80,27</t>
+          <t>69,09; 80,83</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>62,62; 84,6</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>66,89%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>79,79%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>76,61%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>74,21%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>67,45%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>73,15%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>76,4%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>79,24%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>66,89%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>79,79%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>76,61%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>37,36%</t>
+          <t>81,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>59,51%</t>
+          <t>78,16%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>59,54; 74,8</t>
+          <t>59,14; 73,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>66,39; 78,7</t>
+          <t>73,39; 85,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>69,35; 82,48</t>
+          <t>70,08; 82,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>37,94; 100,0</t>
+          <t>62,6; 83,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>59,67; 73,68</t>
+          <t>59,92; 74,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>72,49; 85,3</t>
+          <t>66,16; 79,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>68,25; 82,91</t>
+          <t>69,85; 81,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 82,25</t>
+          <t>71,77; 88,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>61,91; 72,53</t>
+          <t>61,95; 72,6</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>72,09; 80,2</t>
+          <t>71,84; 80,53</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>71,63; 80,76</t>
+          <t>71,64; 80,95</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>32,12; 81,71</t>
+          <t>70,68; 84,65</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>55,15%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>79,8%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>81,35%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>65,45%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>68,75%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>69,49%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>73,37%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>20,05%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>55,15%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>79,8%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>81,35%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>27,88%</t>
+          <t>65,78%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>25,79%</t>
+          <t>65,62%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>58,31; 78,07</t>
+          <t>45,38; 64,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>60,09; 78,16</t>
+          <t>71,96; 86,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>65,02; 80,13</t>
+          <t>73,86; 86,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 87,75</t>
+          <t>54,97; 77,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>45,98; 64,67</t>
+          <t>58,6; 77,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>72,4; 86,32</t>
+          <t>60,35; 77,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>73,27; 87,14</t>
+          <t>64,99; 80,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,94; 59,87</t>
+          <t>54,64; 75,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>54,13; 67,86</t>
+          <t>54,41; 68,03</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>69,03; 80,09</t>
+          <t>68,93; 79,86</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>71,76; 82,15</t>
+          <t>72,0; 82,31</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,43; 49,89</t>
+          <t>57,67; 72,64</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>57,64%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>67,68%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>71,32%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>69,82%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>56,69%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>71,41%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>67,79%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>55,6%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>57,64%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>67,68%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>71,32%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>31,81%</t>
+          <t>66,02%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>44,19%</t>
+          <t>68,01%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>47,0; 64,65</t>
+          <t>48,8; 66,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>64,13; 78,18</t>
+          <t>58,58; 75,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>59,11; 75,78</t>
+          <t>63,38; 78,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,84; 80,73</t>
+          <t>57,11; 85,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>47,9; 66,54</t>
+          <t>48,61; 64,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>58,08; 75,23</t>
+          <t>64,36; 78,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>62,16; 77,96</t>
+          <t>58,6; 75,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,16; 52,87</t>
+          <t>56,67; 74,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>51,32; 63,19</t>
+          <t>50,62; 62,14</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>63,74; 74,59</t>
+          <t>64,07; 74,47</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>63,06; 74,76</t>
+          <t>63,95; 75,96</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>27,0; 60,93</t>
+          <t>61,34; 78,09</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>61,13%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>76,99%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>76,4%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>70,04%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>63,42%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>73,36%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>73,19%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>54,45%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>61,13%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>76,99%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>76,4%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>31,78%</t>
+          <t>70,18%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>42,2%</t>
+          <t>70,11%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>59,15; 67,61</t>
+          <t>56,86; 66,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>69,57; 76,92</t>
+          <t>73,46; 80,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>69,31; 76,7</t>
+          <t>72,36; 79,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>33,3; 71,36</t>
+          <t>63,64; 79,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>56,76; 66,04</t>
+          <t>58,76; 67,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>73,55; 80,64</t>
+          <t>69,75; 76,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>72,7; 79,91</t>
+          <t>69,34; 76,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,15; 48,54</t>
+          <t>64,93; 75,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>58,94; 65,55</t>
+          <t>58,98; 65,36</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>72,75; 77,73</t>
+          <t>72,56; 77,35</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>72,12; 77,34</t>
+          <t>72,04; 77,25</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>30,57; 54,08</t>
+          <t>65,78; 75,57</t>
         </is>
       </c>
     </row>
